--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanjo\Documents\Github\PPAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999FB6DC-E3A7-46DF-8905-99E4FA9C2702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D07E16-1584-4BCB-86CC-EE2C36807D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9DBD9F4-8763-446F-83E3-E6DE21DD8B8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9DBD9F4-8763-446F-83E3-E6DE21DD8B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Duración</t>
   </si>
@@ -57,36 +57,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>t_optimista</t>
@@ -102,8 +72,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -131,9 +109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,19 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E085B2AB-9BE6-4C80-869E-95FBE2E50E6F}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="2.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="2.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,40 +482,10 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -552,9 +503,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -572,9 +523,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
@@ -592,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -611,38 +562,8 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -650,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -661,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -669,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -677,62 +598,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>